--- a/outcome/final_table.xlsx
+++ b/outcome/final_table.xlsx
@@ -602,7 +602,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>浙江大学第一阶段</t>
+          <t>浙江大学第一阶段（浙大回应）</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -611,16 +611,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>143</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>浙江大学第一阶段</t>
+          <t>浙江大学第一阶段（浙大回应）</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>143</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>浙江大学第一阶段</t>
+          <t>浙江大学第一阶段（浙大回应）</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="D12" t="n">
-        <v>143</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>浙江大学第一阶段</t>
+          <t>浙江大学第一阶段（浙大回应）</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D13" t="n">
-        <v>143</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>浙江大学第一阶段</t>
+          <t>浙江大学第一阶段（浙大回应）</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -683,16 +683,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>143</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>浙江大学第二阶段</t>
+          <t>浙江大学第二阶段（教授欢迎）</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>143</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>浙江大学第二阶段</t>
+          <t>浙江大学第二阶段（教授欢迎）</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>143</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>浙江大学第二阶段</t>
+          <t>浙江大学第二阶段（教授欢迎）</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="D17" t="n">
-        <v>143</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>浙江大学第二阶段</t>
+          <t>浙江大学第二阶段（教授欢迎）</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -755,16 +755,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D18" t="n">
-        <v>143</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>浙江大学第二阶段</t>
+          <t>浙江大学第二阶段（教授欢迎）</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -773,16 +773,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>143</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>浙江大学三阶段</t>
+          <t>浙江大学三阶段（教授评论）</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -800,7 +800,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>浙江大学三阶段</t>
+          <t>浙江大学三阶段（教授评论）</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -818,7 +818,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>浙江大学三阶段</t>
+          <t>浙江大学三阶段（教授评论）</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -836,7 +836,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>浙江大学三阶段</t>
+          <t>浙江大学三阶段（教授评论）</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -854,7 +854,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>浙江大学三阶段</t>
+          <t>浙江大学三阶段（教授评论）</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
